--- a/data/trans_orig/P14B38_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7463579F-5CE4-41B6-B86C-59F315168E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D85EA26-20FD-4B2D-8ABE-CB86F6D2D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61F03CD0-DF45-47B6-B7DF-91F3801DB8C4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAFE105E-4B3F-4624-8B67-A488877632CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
   <si>
     <t>Población cuyo otro dolor crónico le limita en 2023 (Tasa respuesta: 8,8%)</t>
   </si>
@@ -101,49 +101,49 @@
     <t>81,54%</t>
   </si>
   <si>
-    <t>28,67%</t>
+    <t>17,26%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>71,33%</t>
+    <t>82,74%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -152,49 +152,49 @@
     <t>88,64%</t>
   </si>
   <si>
-    <t>64,15%</t>
+    <t>67,2%</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>32,8%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -203,211 +203,223 @@
     <t>79,58%</t>
   </si>
   <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>63,01%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2915607-5687-4F2F-9416-984E64D01555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E0C488-3348-4965-A0F6-00948EF3CC11}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1870,13 +1882,13 @@
         <v>131412</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>437</v>
@@ -1885,13 +1897,13 @@
         <v>242113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>608</v>
@@ -1900,13 +1912,13 @@
         <v>373525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1933,13 @@
         <v>28915</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>124</v>
@@ -1936,13 +1948,13 @@
         <v>72709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -1951,13 +1963,13 @@
         <v>101624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,7 +2025,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B38_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D85EA26-20FD-4B2D-8ABE-CB86F6D2D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD643562-47B5-4503-889D-AA6D2D641B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAFE105E-4B3F-4624-8B67-A488877632CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B134EC4D-710F-4261-AFEA-BB916459E961}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E0C488-3348-4965-A0F6-00948EF3CC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC6BA92-0DD8-4706-96FC-EEB63A7FB2E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
